--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF4AA3A-DF42-4D1A-9DC4-025DD50F36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{6CF4AA3A-DF42-4D1A-9DC4-025DD50F36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F4858B4-1ACF-436A-8F58-413B7EAE94D2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="11-04-2021" sheetId="1" r:id="rId1"/>
+    <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
+    <sheet name="12-04-2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>MOM</t>
   </si>
@@ -60,6 +61,54 @@
   </si>
   <si>
     <t>Start developing the Data Model</t>
+  </si>
+  <si>
+    <t>Remove Logo in Header</t>
+  </si>
+  <si>
+    <t>Don't Allow Public to Comment on any post in home page before login (Even don't allow the public to enter something in textbox)</t>
+  </si>
+  <si>
+    <t>Remove Forgot Password Checkbox in Forgot Password page</t>
+  </si>
+  <si>
+    <t>Correct All Alignment problem</t>
+  </si>
+  <si>
+    <t>Remove Remember Me Checkbox in Requester login page</t>
+  </si>
+  <si>
+    <t>If Requester Enter Any comment on any post it shows "me" (Avoid Requester name) and then what comment he gave</t>
+  </si>
+  <si>
+    <t>Correct the Breadcrumps in Requester's my award page</t>
+  </si>
+  <si>
+    <t>Remove Filter Retain Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove ACE ID dropdown box in Add an request page (instead use name or username) </t>
+  </si>
+  <si>
+    <t>Remove Preview Functionality in awardee preview in requester page</t>
+  </si>
+  <si>
+    <t>rejection reason box have only close button(remove yes no )</t>
+  </si>
+  <si>
+    <t>Remove Disable functionality in Dashboard Department filter</t>
+  </si>
+  <si>
+    <t>Use Stacked bar in dashboard</t>
+  </si>
+  <si>
+    <t>map the designation and department in data model</t>
+  </si>
+  <si>
+    <t>Remove Approver table in data model (refinment)</t>
+  </si>
+  <si>
+    <t>Start developing Physical model of data model</t>
   </si>
 </sst>
 </file>
@@ -89,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -136,11 +185,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +247,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,4 +671,279 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E87B47-25EA-456B-9956-B1E6D165DD22}">
+  <dimension ref="B5:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="115.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1"/>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1"/>
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{6CF4AA3A-DF42-4D1A-9DC4-025DD50F36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F4858B4-1ACF-436A-8F58-413B7EAE94D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CB13AD5-FEC1-4C56-B804-EFA9D7580317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
     <sheet name="12-04-2022" sheetId="2" r:id="rId2"/>
+    <sheet name="13-04-2022" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>MOM</t>
   </si>
@@ -109,6 +110,27 @@
   </si>
   <si>
     <t>Start developing Physical model of data model</t>
+  </si>
+  <si>
+    <t>Spelling corrections in  wire frame</t>
+  </si>
+  <si>
+    <t>Alignments in wire frame</t>
+  </si>
+  <si>
+    <t>Date range filters in the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relationship should not exist between Comment and emloyee in Data Model</t>
+  </si>
+  <si>
+    <t>change the parameter name of PostId as AwardRequestId</t>
+  </si>
+  <si>
+    <t>Include the audit Fields</t>
+  </si>
+  <si>
+    <t>Refine the operations in data model</t>
   </si>
 </sst>
 </file>
@@ -249,31 +271,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E87B47-25EA-456B-9956-B1E6D165DD22}">
   <dimension ref="B5:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -705,234 +727,212 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="5"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="5"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -943,6 +943,155 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8305E1F2-D22A-4DC8-881C-61A81FB591C3}">
+  <dimension ref="E9:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="119.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="5:6">
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="6"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CB13AD5-FEC1-4C56-B804-EFA9D7580317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>MOM</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Include the audit Fields</t>
+  </si>
+  <si>
+    <t>Changes in graph (x-axis Organisation)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Refine the operations in data model</t>
@@ -160,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -253,11 +259,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,22 +299,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -295,9 +314,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,212 +762,234 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="10"/>
-      <c r="D38" s="13"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -943,28 +1000,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -972,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8305E1F2-D22A-4DC8-881C-61A81FB591C3}">
-  <dimension ref="E9:F23"/>
+  <dimension ref="E9:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+      <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -993,105 +1028,122 @@
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="6"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="10" t="s">
+      <c r="F16" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="12"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="10" t="s">
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" s="5"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="10" t="s">
+      <c r="F20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="E22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="F22" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="E23" s="5"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="E24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="28" spans="5:10">
+      <c r="J28" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+  <mergeCells count="16">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C368506-4729-40E6-98E4-FDFD24B36572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>MOM</t>
   </si>
@@ -118,13 +118,16 @@
     <t>Alignments in wire frame</t>
   </si>
   <si>
+    <t>Removed Dropdown for Awards in Add Request</t>
+  </si>
+  <si>
     <t>Date range filters in the dashboard</t>
   </si>
   <si>
     <t xml:space="preserve"> Relationship should not exist between Comment and emloyee in Data Model</t>
   </si>
   <si>
-    <t>change the parameter name of PostId as AwardRequestId</t>
+    <t>change the Column name of PostId as AwardRequestId</t>
   </si>
   <si>
     <t>Include the audit Fields</t>
@@ -299,13 +302,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -314,16 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -332,7 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +775,8 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
@@ -788,8 +791,8 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
@@ -804,65 +807,65 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="5"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -871,82 +874,82 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -955,41 +958,19 @@
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="5"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1000,6 +981,28 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1007,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8305E1F2-D22A-4DC8-881C-61A81FB591C3}">
-  <dimension ref="E9:J28"/>
+  <dimension ref="E9:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1036,8 +1039,8 @@
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="5:6">
       <c r="E12" s="6" t="s">
@@ -1048,8 +1051,8 @@
       </c>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="5:6">
       <c r="E14" s="6" t="s">
@@ -1060,90 +1063,104 @@
       </c>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="12"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="E23" s="6"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="E24" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="E23" s="5"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="28" spans="5:10">
-      <c r="J28" s="16"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="5:10">
+      <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="J30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C368506-4729-40E6-98E4-FDFD24B36572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53AD5B2E-CAD6-4881-A53D-5FC110D59701}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
     <sheet name="12-04-2022" sheetId="2" r:id="rId2"/>
     <sheet name="13-04-2022" sheetId="3" r:id="rId3"/>
+    <sheet name="20-04-2022" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>MOM</t>
   </si>
@@ -115,6 +116,9 @@
     <t>Spelling corrections in  wire frame</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>Alignments in wire frame</t>
   </si>
   <si>
@@ -140,6 +144,30 @@
   </si>
   <si>
     <t>Refine the operations in data model</t>
+  </si>
+  <si>
+    <t>Change datatype of the AddedBy, UpdatedBy Attributes in Award Request Table in DataModel</t>
+  </si>
+  <si>
+    <t>Spelling Correction - "Designation"</t>
+  </si>
+  <si>
+    <t>Operations in datamodel must contain Input and Output</t>
+  </si>
+  <si>
+    <t>Change FilterByAward(Award) into FilterByAward(Award type)</t>
+  </si>
+  <si>
+    <t>Naming convention - View Comments (plural)</t>
+  </si>
+  <si>
+    <t>Don't use remove functionality in status page, instead use disable functionality</t>
+  </si>
+  <si>
+    <t>Analyse the differece between GetAwardRequest and ViewPost</t>
+  </si>
+  <si>
+    <t>Add Login and Logout operations in datamodel</t>
   </si>
 </sst>
 </file>
@@ -155,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -284,11 +318,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,6 +381,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E87B47-25EA-456B-9956-B1E6D165DD22}">
   <dimension ref="B5:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1012,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8305E1F2-D22A-4DC8-881C-61A81FB591C3}">
   <dimension ref="E9:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1022,7 +1078,7 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:6">
+    <row r="9" spans="5:8">
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:6">
+    <row r="10" spans="5:8">
       <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1038,37 +1094,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="5:6">
+    <row r="11" spans="5:8">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="5:6">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="5:6">
+    <row r="13" spans="5:8">
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="5:6">
+    <row r="14" spans="5:8">
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
+    <row r="15" spans="5:8">
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="5:6">
+    <row r="16" spans="5:8">
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>3</v>
@@ -1080,7 +1139,7 @@
     </row>
     <row r="18" spans="5:10">
       <c r="E18" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>3</v>
@@ -1092,7 +1151,7 @@
     </row>
     <row r="20" spans="5:10">
       <c r="E20" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>3</v>
@@ -1104,7 +1163,7 @@
     </row>
     <row r="22" spans="5:10">
       <c r="E22" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>3</v>
@@ -1116,10 +1175,10 @@
     </row>
     <row r="24" spans="5:10">
       <c r="E24" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:10">
@@ -1128,7 +1187,7 @@
     </row>
     <row r="26" spans="5:10">
       <c r="E26" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>3</v>
@@ -1164,4 +1223,155 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145DE6EF-A0C8-42DE-84D5-5522946F94F0}">
+  <dimension ref="E6:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="88.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:6">
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="19"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="17"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53AD5B2E-CAD6-4881-A53D-5FC110D59701}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92AF9088-66D3-4AC2-B454-2963363DEA1D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
     <sheet name="12-04-2022" sheetId="2" r:id="rId2"/>
     <sheet name="13-04-2022" sheetId="3" r:id="rId3"/>
     <sheet name="20-04-2022" sheetId="4" r:id="rId4"/>
+    <sheet name="21-04-2022" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>MOM</t>
   </si>
@@ -161,13 +162,37 @@
     <t>Naming convention - View Comments (plural)</t>
   </si>
   <si>
-    <t>Don't use remove functionality in status page, instead use disable functionality</t>
+    <t>Don't use remove functionality , instead use disable functionality</t>
   </si>
   <si>
     <t>Analyse the differece between GetAwardRequest and ViewPost</t>
   </si>
   <si>
     <t>Add Login and Logout operations in datamodel</t>
+  </si>
+  <si>
+    <t>Need one more Attribute in both Organisation and Department entity (Operation for getting list of departments under one specific organisation)</t>
+  </si>
+  <si>
+    <t>Multiple  filters simultaneously</t>
+  </si>
+  <si>
+    <t>GetByStatus , PostView redundancy</t>
+  </si>
+  <si>
+    <t>Naming convention - Award Request become Award and Award becomes Award Type</t>
+  </si>
+  <si>
+    <t>Write operation in Status Entity</t>
+  </si>
+  <si>
+    <t>Need Designation ID, Department ID, ACE ID in Employee Entity</t>
+  </si>
+  <si>
+    <t>Logout's  input and output  method</t>
+  </si>
+  <si>
+    <t>Pass objects instead of IDs</t>
   </si>
 </sst>
 </file>
@@ -203,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -331,11 +356,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,22 +393,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -374,7 +409,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -391,6 +435,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E87B47-25EA-456B-9956-B1E6D165DD22}">
   <dimension ref="B5:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -821,212 +880,234 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="11"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1037,28 +1118,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1087,121 +1146,129 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="11"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1212,14 +1279,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1229,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145DE6EF-A0C8-42DE-84D5-5522946F94F0}">
   <dimension ref="E6:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1248,129 +1307,282 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="19"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="17"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49CF707-D61D-404F-B68B-0D7CFE336593}">
+  <dimension ref="D8:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="123.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:6">
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="6"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="E16" s="12"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="14"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="15"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92AF9088-66D3-4AC2-B454-2963363DEA1D}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FE31A33-402B-4BD1-9A0E-F81D9A8658B4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="13-04-2022" sheetId="3" r:id="rId3"/>
     <sheet name="20-04-2022" sheetId="4" r:id="rId4"/>
     <sheet name="21-04-2022" sheetId="5" r:id="rId5"/>
+    <sheet name="22-04-2022" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>MOM</t>
   </si>
@@ -193,6 +194,24 @@
   </si>
   <si>
     <t>Pass objects instead of IDs</t>
+  </si>
+  <si>
+    <t>Remove Period Parameter instead use fromdate - todate</t>
+  </si>
+  <si>
+    <t>Naming convention - Use "GetAwardByStatus" from "GetByStatus" in Award Entity</t>
+  </si>
+  <si>
+    <t>GetMyAward(Status) - include paramenters what is required</t>
+  </si>
+  <si>
+    <t>Need Cross cutting layer in System Architecture</t>
+  </si>
+  <si>
+    <t>Keep Organisation, Department, Designation as a separate service</t>
+  </si>
+  <si>
+    <t>Interaction diagram should contain all relevant services</t>
   </si>
 </sst>
 </file>
@@ -436,6 +455,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,12 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49CF707-D61D-404F-B68B-0D7CFE336593}">
   <dimension ref="D8:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1530,8 +1549,8 @@
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="5:6">
       <c r="E21" s="8" t="s">
@@ -1541,7 +1560,7 @@
     </row>
     <row r="22" spans="5:6">
       <c r="E22" s="15"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="5:6">
       <c r="E23" s="7" t="s">
@@ -1556,33 +1575,166 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3315F1CC-6895-44CC-97AE-8355CB0BC08D}">
+  <dimension ref="F9:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="92.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="6:7">
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="12"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="20"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FE31A33-402B-4BD1-9A0E-F81D9A8658B4}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{213827DD-6306-4696-91B2-0E1FFD31C3BE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,46 +413,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,234 +899,212 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="7"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1137,6 +1115,28 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1165,94 +1165,94 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="12"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="14"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="7"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="16" t="s">
@@ -1260,34 +1260,26 @@
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="7"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1298,6 +1290,14 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1326,129 +1326,129 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="12"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="14"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="20"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="18"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1480,71 +1480,71 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="12"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1553,26 +1553,26 @@
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="15"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="25"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="23"/>
@@ -1584,14 +1584,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -1602,6 +1594,14 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1612,7 +1612,7 @@
   <dimension ref="F9:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+      <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1630,101 +1630,95 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>3</v>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>3</v>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>3</v>
+      <c r="G14" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>3</v>
+      <c r="G16" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>3</v>
+      <c r="G18" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>3</v>
+      <c r="G20" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="20"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -1735,6 +1729,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{213827DD-6306-4696-91B2-0E1FFD31C3BE}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C50E02E-3A8D-4081-BA69-C9964CFE9F17}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="20-04-2022" sheetId="4" r:id="rId4"/>
     <sheet name="21-04-2022" sheetId="5" r:id="rId5"/>
     <sheet name="22-04-2022" sheetId="6" r:id="rId6"/>
+    <sheet name="23-04-2022" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>MOM</t>
   </si>
@@ -212,6 +213,33 @@
   </si>
   <si>
     <t>Interaction diagram should contain all relevant services</t>
+  </si>
+  <si>
+    <t>All TextBox size must Same</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>All Button size must same</t>
+  </si>
+  <si>
+    <t>Dropdown is look like Button have to change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include sort by period in html home page </t>
+  </si>
+  <si>
+    <t>Rectify spacing problem</t>
+  </si>
+  <si>
+    <t>Rectify Alignment problem</t>
+  </si>
+  <si>
+    <t>Rework on system architecture and complete it</t>
+  </si>
+  <si>
+    <t>Complete Web API</t>
   </si>
 </sst>
 </file>
@@ -413,9 +441,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,31 +468,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,212 +927,234 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1115,28 +1165,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1165,94 +1193,94 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="7"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="16" t="s">
@@ -1260,26 +1288,34 @@
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="12"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1290,14 +1326,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1326,129 +1354,129 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="18"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="19"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1480,71 +1508,71 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="10"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1553,26 +1581,26 @@
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="11"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="25"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="23"/>
@@ -1584,6 +1612,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -1594,14 +1630,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1611,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3315F1CC-6895-44CC-97AE-8355CB0BC08D}">
   <dimension ref="F9:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1630,95 +1658,101 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="8"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>36</v>
+      <c r="G18" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="10"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>36</v>
+      <c r="G20" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="18"/>
-      <c r="G21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -1729,12 +1763,147 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0050B723-F841-4CFE-B37D-BC424F17F5C7}">
+  <dimension ref="F7:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="82.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:7">
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="21"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="12"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="12"/>
+      <c r="G23" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C50E02E-3A8D-4081-BA69-C9964CFE9F17}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BE5C58-1A7D-4BC8-8471-A1F0C5A871B2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="21-04-2022" sheetId="5" r:id="rId5"/>
     <sheet name="22-04-2022" sheetId="6" r:id="rId6"/>
     <sheet name="23-04-2022" sheetId="7" r:id="rId7"/>
+    <sheet name="25-04-2022" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>MOM</t>
   </si>
@@ -240,6 +241,18 @@
   </si>
   <si>
     <t>Complete Web API</t>
+  </si>
+  <si>
+    <t>List out the pages in your system</t>
+  </si>
+  <si>
+    <t>Static page in GitHub</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Estimation work</t>
   </si>
 </sst>
 </file>
@@ -441,46 +454,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,234 +940,212 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="7"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1165,6 +1156,28 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1193,94 +1206,94 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="12"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="14"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="7"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="16" t="s">
@@ -1288,34 +1301,26 @@
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="7"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1326,6 +1331,14 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1354,129 +1367,129 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="12"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="14"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="20"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="18"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1508,71 +1521,71 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="12"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1581,26 +1594,26 @@
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="15"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="25"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="23"/>
@@ -1612,14 +1625,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -1630,6 +1635,14 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1658,101 +1671,95 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="20"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -1763,6 +1770,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1772,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0050B723-F841-4CFE-B37D-BC424F17F5C7}">
   <dimension ref="F7:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1791,79 +1804,79 @@
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="12"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="14"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="21"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="16" t="s">
@@ -1871,11 +1884,11 @@
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="12"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="16" t="s">
@@ -1883,11 +1896,17 @@
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="12"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -1898,12 +1917,97 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85967F8F-07CF-4EE2-8278-2AE5568A1805}">
+  <dimension ref="F6:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="76" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:7">
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BE5C58-1A7D-4BC8-8471-A1F0C5A871B2}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77972F06-F30A-49AA-87C8-2F6A613E991D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="22-04-2022" sheetId="6" r:id="rId6"/>
     <sheet name="23-04-2022" sheetId="7" r:id="rId7"/>
     <sheet name="25-04-2022" sheetId="8" r:id="rId8"/>
+    <sheet name="26-04-2022" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>MOM</t>
   </si>
@@ -253,6 +254,75 @@
   </si>
   <si>
     <t>Estimation work</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Publish html layout in GIT</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 day once Do Code mering  &amp; Integration testing </t>
+  </si>
+  <si>
+    <t>no adhoc review</t>
+  </si>
+  <si>
+    <t>Gothrough PPT in a daily basis</t>
+  </si>
+  <si>
+    <t>Explore EF, Bootstrap</t>
+  </si>
+  <si>
+    <t>Time Sheet should be Low Level</t>
+  </si>
+  <si>
+    <t>don't skip review</t>
+  </si>
+  <si>
+    <t>Minimum it takes 2 days for implement one task</t>
+  </si>
+  <si>
+    <t>Team Members</t>
+  </si>
+  <si>
+    <t>Responsible for</t>
+  </si>
+  <si>
+    <t>Atsaya</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Ajay, Jeeva</t>
+  </si>
+  <si>
+    <t>Web API</t>
+  </si>
+  <si>
+    <t>Archana</t>
+  </si>
+  <si>
+    <t>Review Scheduling</t>
+  </si>
+  <si>
+    <t>Logesh</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Vedhya</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Aravinth</t>
   </si>
 </sst>
 </file>
@@ -268,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +357,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -434,11 +516,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,9 +564,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,33 +615,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,6 +643,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,212 +1080,234 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1156,28 +1318,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1206,121 +1346,129 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="7"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="12"/>
-      <c r="F25" s="17"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1331,14 +1479,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1367,129 +1507,129 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="18"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="19"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1521,110 +1661,118 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="10"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="11"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -1635,14 +1783,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1671,95 +1811,101 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="8"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="10"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="18"/>
-      <c r="G21" s="12"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -1770,12 +1916,6 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1786,7 +1926,7 @@
   <dimension ref="F7:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G17"/>
+      <selection activeCell="F7" sqref="F7:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1804,109 +1944,103 @@
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="10"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="21"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="8"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="8"/>
-      <c r="G23" s="17"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -1917,6 +2051,12 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1926,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85967F8F-07CF-4EE2-8278-2AE5568A1805}">
   <dimension ref="F6:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
@@ -1945,56 +2085,56 @@
       </c>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2011,4 +2151,188 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B7AA1E-702D-48A4-BEA6-2178F7559935}">
+  <dimension ref="D4:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="96.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5">
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="7"/>
+      <c r="E41" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="272" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77972F06-F30A-49AA-87C8-2F6A613E991D}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4844B69-E48E-4440-B5F9-F21DE846CCD8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="23-04-2022" sheetId="7" r:id="rId7"/>
     <sheet name="25-04-2022" sheetId="8" r:id="rId8"/>
     <sheet name="26-04-2022" sheetId="9" r:id="rId9"/>
+    <sheet name="27-04-2022" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
   <si>
     <t>MOM</t>
   </si>
@@ -323,6 +324,42 @@
   </si>
   <si>
     <t>Aravinth</t>
+  </si>
+  <si>
+    <t>Need Award Discription</t>
+  </si>
+  <si>
+    <t>Include Thumbnails</t>
+  </si>
+  <si>
+    <t>Prortotype should be updated if we made any changes in html</t>
+  </si>
+  <si>
+    <t>Avoid Horizontal Scroll bars</t>
+  </si>
+  <si>
+    <t>Broden Awardee details page, Requester List, and Admin pages</t>
+  </si>
+  <si>
+    <t>Utlize white spaces (real-estate)</t>
+  </si>
+  <si>
+    <t>Individual page estimation should contain no. of hrs and no. of days</t>
+  </si>
+  <si>
+    <t>HTML page cover All Functionality</t>
+  </si>
+  <si>
+    <t>Reuse the estimation hrs from other pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if we assume like need extra hrs that should come in buffer </t>
+  </si>
+  <si>
+    <t>disable take less number of hrs and days refine it</t>
+  </si>
+  <si>
+    <t>All view functionality take less no of days and hrs and there is need only few hrs for html validation</t>
   </si>
 </sst>
 </file>
@@ -548,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,6 +625,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,12 +683,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,6 +1082,203 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B4AA27-79B2-467A-BDEF-064E7FA9014B}">
+  <dimension ref="E5:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="93.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:6">
+      <c r="E5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="21"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="30"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="21"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="21"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="21"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="21"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="21"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" s="21"/>
+      <c r="F29" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E87B47-25EA-456B-9956-B1E6D165DD22}">
   <dimension ref="B5:E38"/>
@@ -1080,209 +1311,209 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="15"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="15"/>
-      <c r="D38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -1346,115 +1577,115 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="20"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="22"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="15"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="15"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
@@ -1507,108 +1738,108 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="20"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="22"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="28"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="26"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1661,107 +1892,107 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="20"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="22"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="24"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="23"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1811,92 +2042,92 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="20"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="22"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="28"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1944,100 +2175,100 @@
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="20"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="22"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="29"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="20"/>
-      <c r="G21" s="25"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="20"/>
-      <c r="G23" s="25"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2085,56 +2316,56 @@
       </c>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2157,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B7AA1E-702D-48A4-BEA6-2178F7559935}">
   <dimension ref="D4:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2176,59 +2407,59 @@
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="4:5">
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="4:5">
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="4:5">
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="4:5">
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="4:5">
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="11"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{2F185AB4-E681-4846-9AA3-9DEB81962099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4844B69-E48E-4440-B5F9-F21DE846CCD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E4A9CF-5E72-4597-B716-70FF45E2A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="25-04-2022" sheetId="8" r:id="rId8"/>
     <sheet name="26-04-2022" sheetId="9" r:id="rId9"/>
     <sheet name="27-04-2022" sheetId="10" r:id="rId10"/>
+    <sheet name="28-04-2022" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
   <si>
     <t>MOM</t>
   </si>
@@ -360,6 +361,21 @@
   </si>
   <si>
     <t>All view functionality take less no of days and hrs and there is need only few hrs for html validation</t>
+  </si>
+  <si>
+    <t>Need Audit fields in Admin too</t>
+  </si>
+  <si>
+    <t>Services, Repository should completed in Web API</t>
+  </si>
+  <si>
+    <t>Responsiveness, Gap problems, Consistancy</t>
+  </si>
+  <si>
+    <t>Do submit comment with enter button without having button</t>
+  </si>
+  <si>
+    <t>While Implementation</t>
   </si>
 </sst>
 </file>
@@ -628,46 +644,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B4AA27-79B2-467A-BDEF-064E7FA9014B}">
   <dimension ref="E5:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1105,79 +1121,79 @@
       </c>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="23"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17" s="30"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -1185,23 +1201,23 @@
       </c>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="21"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="21"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -1209,11 +1225,11 @@
       </c>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="21"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1221,11 +1237,11 @@
       </c>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="21"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -1233,11 +1249,11 @@
       </c>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="21"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -1245,35 +1261,120 @@
       </c>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="21"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A205F42D-9981-4051-9EC1-1F1E6C13BBFA}">
+  <dimension ref="E6:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="54.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:6">
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="20"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1311,234 +1412,212 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="16"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="16"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1549,6 +1628,28 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1577,94 +1678,94 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="21"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="23"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="16"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="17"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1672,34 +1773,26 @@
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="16"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1710,6 +1803,14 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1738,129 +1839,129 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="21"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="23"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="29"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="27"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1892,71 +1993,71 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="21"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="23"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1965,26 +2066,26 @@
       <c r="F20" s="31"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="25"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="24"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="34"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="32"/>
@@ -1996,14 +2097,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -2014,6 +2107,14 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2042,101 +2143,95 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="21"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="23"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="29"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -2147,6 +2242,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2175,79 +2276,79 @@
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="21"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="23"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="30"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -2255,11 +2356,11 @@
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="21"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="25" t="s">
@@ -2267,11 +2368,17 @@
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="21"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -2282,12 +2389,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2316,56 +2417,56 @@
       </c>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2407,16 +2508,16 @@
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="11"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E4A9CF-5E72-4597-B716-70FF45E2A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="26-04-2022" sheetId="9" r:id="rId9"/>
     <sheet name="27-04-2022" sheetId="10" r:id="rId10"/>
     <sheet name="28-04-2022" sheetId="11" r:id="rId11"/>
+    <sheet name="29-04-2022" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
   <si>
     <t>MOM</t>
   </si>
@@ -376,6 +377,15 @@
   </si>
   <si>
     <t>While Implementation</t>
+  </si>
+  <si>
+    <t>Responsiveness of layout</t>
+  </si>
+  <si>
+    <t>Web Api</t>
+  </si>
+  <si>
+    <t>Logging and Exception handling</t>
   </si>
 </sst>
 </file>
@@ -644,9 +654,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,31 +681,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,79 +1131,79 @@
       </c>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="17"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17" s="30"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>102</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -1201,11 +1211,11 @@
       </c>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="17"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -1213,11 +1223,11 @@
       </c>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="17"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="17" t="s">
         <v>104</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -1225,11 +1235,11 @@
       </c>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="17"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1237,11 +1247,11 @@
       </c>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="17"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="17" t="s">
         <v>106</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -1249,11 +1259,11 @@
       </c>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="17"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -1261,35 +1271,35 @@
       </c>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="17"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1299,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A205F42D-9981-4051-9EC1-1F1E6C13BBFA}">
   <dimension ref="E6:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1318,52 +1328,52 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="20"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1375,6 +1385,77 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFADEE9-ECDD-4AF1-A5CF-F6FA51EFFE90}">
+  <dimension ref="E6:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="54.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:6">
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="24"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="16"/>
+      <c r="F12" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1412,212 +1493,234 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="21"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1628,28 +1731,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1678,94 +1759,94 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="17"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="16"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1773,26 +1854,34 @@
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="21"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1803,14 +1892,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1839,129 +1920,129 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="17"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="27"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="28"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1993,71 +2074,71 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="17"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2066,26 +2147,26 @@
       <c r="F20" s="31"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="25"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="20"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="34"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="32"/>
@@ -2097,6 +2178,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -2107,14 +2196,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2143,95 +2224,101 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="17"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="19"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="27"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -2242,12 +2329,6 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2276,79 +2357,79 @@
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="19"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="30"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -2356,11 +2437,11 @@
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="17"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="25" t="s">
@@ -2368,17 +2449,11 @@
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="17"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -2389,6 +2464,12 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2417,56 +2498,56 @@
       </c>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2508,16 +2589,16 @@
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="11"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE34C8A3-C1DE-47C8-B289-FFA483B41B8B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="27-04-2022" sheetId="10" r:id="rId10"/>
     <sheet name="28-04-2022" sheetId="11" r:id="rId11"/>
     <sheet name="29-04-2022" sheetId="12" r:id="rId12"/>
+    <sheet name="05-05-2022" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
   <si>
     <t>MOM</t>
   </si>
@@ -386,6 +387,18 @@
   </si>
   <si>
     <t>Logging and Exception handling</t>
+  </si>
+  <si>
+    <t>timesheet comes under nonproject</t>
+  </si>
+  <si>
+    <t>Include status in estimation like that page is completed or not</t>
+  </si>
+  <si>
+    <t>Complete all get services with angular pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -654,46 +667,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,79 +1144,79 @@
       </c>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="23"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17" s="30"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -1211,11 +1224,11 @@
       </c>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="21"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -1223,11 +1236,11 @@
       </c>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="21"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -1235,11 +1248,11 @@
       </c>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="21"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1247,11 +1260,11 @@
       </c>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="21"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -1259,11 +1272,11 @@
       </c>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="21"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -1271,35 +1284,35 @@
       </c>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="21"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1310,7 +1323,7 @@
   <dimension ref="E6:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1328,52 +1341,52 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1394,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFADEE9-ECDD-4AF1-A5CF-F6FA51EFFE90}">
   <dimension ref="E6:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1413,31 +1426,31 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="24"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="21" t="s">
         <v>115</v>
       </c>
       <c r="F11" s="25" t="s">
@@ -1445,7 +1458,7 @@
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="16"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="26"/>
     </row>
   </sheetData>
@@ -1456,6 +1469,103 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04854795-6C1A-448D-8E51-11873334691F}">
+  <dimension ref="D6:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:5">
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="20"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="21"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1493,234 +1603,212 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="16"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="16"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1731,6 +1819,28 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1759,94 +1869,94 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="21"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="23"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="16"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="17"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1854,34 +1964,26 @@
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="16"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1892,6 +1994,14 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1920,129 +2030,129 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="21"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="23"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="29"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="27"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2074,71 +2184,71 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="21"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="23"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2147,26 +2257,26 @@
       <c r="F20" s="31"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="25"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="24"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="34"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="32"/>
@@ -2178,14 +2288,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -2196,6 +2298,14 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2224,101 +2334,95 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="21"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="23"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="29"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -2329,6 +2433,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2357,79 +2467,79 @@
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="21"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="23"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="30"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -2437,11 +2547,11 @@
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="21"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="25" t="s">
@@ -2449,11 +2559,17 @@
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="21"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -2464,12 +2580,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2498,56 +2608,56 @@
       </c>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2571,7 +2681,7 @@
   <dimension ref="D4:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D17" sqref="D17:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2589,16 +2699,16 @@
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="11"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE34C8A3-C1DE-47C8-B289-FFA483B41B8B}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F85E86D-A054-4FFD-98AB-7C734286C1AC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,8 @@
     <sheet name="27-04-2022" sheetId="10" r:id="rId10"/>
     <sheet name="28-04-2022" sheetId="11" r:id="rId11"/>
     <sheet name="29-04-2022" sheetId="12" r:id="rId12"/>
-    <sheet name="05-05-2022" sheetId="13" r:id="rId13"/>
+    <sheet name="05-07-2022" sheetId="13" r:id="rId13"/>
+    <sheet name="06-07-2022" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
   <si>
     <t>MOM</t>
   </si>
@@ -389,23 +389,41 @@
     <t>Logging and Exception handling</t>
   </si>
   <si>
-    <t>timesheet comes under nonproject</t>
-  </si>
-  <si>
-    <t>Include status in estimation like that page is completed or not</t>
-  </si>
-  <si>
-    <t>Complete all get services with angular pages</t>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>EDIT pages in department,designation,Employee</t>
+  </si>
+  <si>
+    <t>Complete the Functionality</t>
+  </si>
+  <si>
+    <t>Edit to update &amp; Add to Edit slight change in ADD awards screen</t>
+  </si>
+  <si>
+    <t>change text boxes to Multiline textboxes</t>
+  </si>
+  <si>
+    <t>Rafi asked us to complete the screens fully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Var char max = can hold upto 2gb </t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Has to complete Dashboard within Tuesday</t>
+  </si>
+  <si>
+    <t>Asked to fill the Revised Plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -620,11 +638,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,9 +733,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,33 +766,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,6 +795,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,15 +1128,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.14453125" style="1"/>
+    <col min="3" max="3" width="75.0625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.68359375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="50.25" customHeight="1">
+    <row r="5" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="50.25" customHeight="1">
+    <row r="6" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="50.25" customHeight="1">
+    <row r="7" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="50.25" customHeight="1">
+    <row r="8" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="50.25" customHeight="1">
+    <row r="9" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="50.25" customHeight="1">
+    <row r="10" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="50.25" customHeight="1">
+    <row r="11" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1129,13 +1213,13 @@
       <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="93.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="93.76171875" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6">
+    <row r="5" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
@@ -1143,176 +1227,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:6">
-      <c r="E6" s="16" t="s">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="16" t="s">
+      <c r="F6" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="16" t="s">
+    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" s="16" t="s">
+    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13" s="17"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="5:6">
-      <c r="E14" s="18" t="s">
+      <c r="F12" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="23"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" s="27" t="s">
+      <c r="F14" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="25"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="30"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="16" t="s">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="32"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="17"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="16" t="s">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="23"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="17"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="16" t="s">
+      <c r="F20" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="23"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="17"/>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="16" t="s">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="23"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="17"/>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="16" t="s">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="23"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="17"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="16" t="s">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="23"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="17"/>
-      <c r="F29" s="26"/>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="23"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1326,13 +1410,13 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="54.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="54.61328125" customWidth="1"/>
+    <col min="6" max="6" width="37.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:6">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1340,53 +1424,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="F7" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+      <c r="F9" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" s="20"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13" s="21" t="s">
+      <c r="F11" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="5:6">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1411,13 +1495,13 @@
       <selection activeCell="E6" sqref="E6:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="54.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="54.61328125" customWidth="1"/>
+    <col min="6" max="6" width="37.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:6">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1425,41 +1509,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="F7" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="20"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="21" t="s">
+      <c r="F9" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="26"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" s="21"/>
-      <c r="F12" s="26"/>
+      <c r="F11" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="18"/>
+      <c r="F12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1479,16 +1563,16 @@
   <dimension ref="D6:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D25"/>
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="64" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="64.03125" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1496,70 +1580,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
-      <c r="D7" s="16" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="18"/>
+      <c r="E11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="4:5">
-      <c r="D9" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="21"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="18" spans="4:4">
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="18"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581AE4B4-9B8B-46CD-BAE6-9DA4D327528E}">
+  <dimension ref="D6:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="64.03125" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="19"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="40"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="D9:D10"/>
@@ -1579,19 +1776,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="115.85546875" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="115.82421875" customWidth="1"/>
+    <col min="4" max="4" width="37.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
@@ -1601,214 +1798,236 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5">
-      <c r="C15" s="21" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="21" t="s">
+      <c r="D15" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="18"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="21" t="s">
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="21" t="s">
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="21" t="s">
+      <c r="D21" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="21" t="s">
+      <c r="D23" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="21" t="s">
+      <c r="D25" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="21" t="s">
+      <c r="D27" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="21" t="s">
+      <c r="D29" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="21" t="s">
+      <c r="D31" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="21" t="s">
+      <c r="D33" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="21" t="s">
+      <c r="D35" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="21"/>
-      <c r="D38" s="24"/>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="18"/>
+      <c r="D38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -1819,28 +2038,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1854,13 +2051,13 @@
       <selection activeCell="E9" sqref="E9:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="119.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="119.859375" customWidth="1"/>
+    <col min="6" max="6" width="14.390625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:8">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1868,122 +2065,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
-      <c r="E10" s="16" t="s">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="F10" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
-      <c r="E12" s="16" t="s">
+    <row r="12" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8">
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="5:8">
-      <c r="E14" s="16" t="s">
+      <c r="F12" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8">
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="5:8">
-      <c r="E16" s="16" t="s">
+      <c r="F14" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
-      <c r="E17" s="17"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" s="18" t="s">
+      <c r="F16" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="23"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" s="21" t="s">
+      <c r="F18" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="25"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="5:10">
-      <c r="E22" s="21" t="s">
+      <c r="F20" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="18"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="E23" s="16"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" s="21" t="s">
+      <c r="F22" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="5:10">
-      <c r="E25" s="21"/>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="E26" s="17" t="s">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="18"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10">
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="30" spans="5:10">
+      <c r="F26" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -1994,14 +2199,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2015,13 +2212,13 @@
       <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="88.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="88.515625" customWidth="1"/>
+    <col min="6" max="6" width="27.57421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:6">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2029,130 +2226,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="F7" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+      <c r="F9" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13" s="16" t="s">
+      <c r="F11" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6">
-      <c r="E14" s="17"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="18" t="s">
+      <c r="F13" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="23"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="27" t="s">
+      <c r="F15" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="25"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="27"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="21" t="s">
+      <c r="F17" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="31"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="28" t="s">
+      <c r="F19" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="28"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="F21" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="29"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2166,15 +2363,15 @@
       <selection activeCell="E8" sqref="E8:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="123.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.35546875" customWidth="1"/>
+    <col min="5" max="5" width="123.625" customWidth="1"/>
+    <col min="6" max="6" width="26.90234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2182,112 +2379,120 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D9" s="6"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
+      <c r="F9" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D10" s="6"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="E11" s="16" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="E13" s="16" t="s">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="E15" s="16" t="s">
+      <c r="F13" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="E16" s="17"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="18" t="s">
+      <c r="F15" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="23"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="27" t="s">
+      <c r="F17" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="25"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="16" t="s">
+      <c r="F19" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="20"/>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="21" t="s">
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="26"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="F23" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -2298,14 +2503,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2319,13 +2516,13 @@
       <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="92.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="92.1484375" customWidth="1"/>
+    <col min="7" max="7" width="37.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="6:7">
+    <row r="9" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F9" s="2" t="s">
         <v>0</v>
       </c>
@@ -2333,96 +2530,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
-      <c r="F10" s="16" t="s">
+    <row r="10" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="6:7">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+      <c r="G10" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="16" t="s">
+      <c r="G12" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="16" t="s">
+      <c r="G14" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="17"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="18" t="s">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="23"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" s="19"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20" s="27" t="s">
+      <c r="G18" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="25"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21" s="27"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="G20" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="31"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -2433,12 +2636,6 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2452,13 +2649,13 @@
       <selection activeCell="F7" sqref="F7:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="82.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="82.19140625" customWidth="1"/>
+    <col min="7" max="7" width="36.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:7">
+    <row r="7" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2466,110 +2663,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
-      <c r="F8" s="16" t="s">
+    <row r="8" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="6:7">
-      <c r="F10" s="16" t="s">
+    <row r="9" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+    <row r="11" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="16" t="s">
+    <row r="13" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="18" t="s">
+    <row r="15" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="23"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="19"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="27" t="s">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="25"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
-      <c r="F19" s="30"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20" s="16" t="s">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="32"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
-      <c r="F21" s="17"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22" s="16" t="s">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="23"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
-      <c r="F23" s="17"/>
-      <c r="G23" s="26"/>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="23"/>
+      <c r="G23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -2580,6 +2771,12 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2593,13 +2790,13 @@
       <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="76" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="76.00390625" customWidth="1"/>
+    <col min="7" max="7" width="27.57421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:7">
+    <row r="6" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2607,57 +2804,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="6:7">
-      <c r="F7" s="16" t="s">
+    <row r="7" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="6:7">
-      <c r="F9" s="16" t="s">
+    <row r="8" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="6:7">
-      <c r="F11" s="16" t="s">
+    <row r="10" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+    <row r="12" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2684,13 +2881,13 @@
       <selection activeCell="D17" sqref="D17:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="96.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="96.31640625" customWidth="1"/>
+    <col min="5" max="5" width="36.3203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -2698,100 +2895,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5">
-      <c r="D5" s="16" t="s">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="4:5">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="4:5">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="13" t="s">
         <v>83</v>
       </c>
@@ -2799,7 +2996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="9" t="s">
         <v>85</v>
       </c>
@@ -2807,7 +3004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="4" t="s">
         <v>87</v>
       </c>
@@ -2815,7 +3012,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
         <v>89</v>
       </c>
@@ -2823,7 +3020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="8" t="s">
         <v>91</v>
       </c>
@@ -2831,7 +3028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="8" t="s">
         <v>93</v>
       </c>
@@ -2839,7 +3036,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="8" t="s">
         <v>95</v>
       </c>
@@ -2847,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="7"/>
       <c r="E41" s="12"/>
     </row>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F85E86D-A054-4FFD-98AB-7C734286C1AC}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18D56B4-5282-41D0-ADE7-2AAE2ACD6806}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="29-04-2022" sheetId="12" r:id="rId12"/>
     <sheet name="05-07-2022" sheetId="13" r:id="rId13"/>
     <sheet name="06-07-2022" sheetId="14" r:id="rId14"/>
+    <sheet name="07-07-2022" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
   <si>
     <t>MOM</t>
   </si>
@@ -417,6 +418,18 @@
   </si>
   <si>
     <t>Asked to fill the Revised Plan</t>
+  </si>
+  <si>
+    <t>Font changes in login screen</t>
+  </si>
+  <si>
+    <t>Login Validations</t>
+  </si>
+  <si>
+    <t>Complete the validations and testing and refactoring within this week</t>
+  </si>
+  <si>
+    <t>All the validations</t>
   </si>
 </sst>
 </file>
@@ -690,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,6 +753,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -796,16 +815,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1228,148 +1247,148 @@
       </c>
     </row>
     <row r="6" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="23"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="25"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="32"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="23"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="23"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="23"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="23"/>
-      <c r="F25" s="28"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="23"/>
-      <c r="F27" s="28"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="23"/>
-      <c r="F29" s="28"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1425,52 +1444,52 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="26"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1510,40 +1529,40 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="26"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="18"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1562,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04854795-6C1A-448D-8E51-11873334691F}">
   <dimension ref="D6:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
@@ -1581,38 +1600,38 @@
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="18"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="18"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="15" t="s">
@@ -1658,7 +1677,7 @@
   <dimension ref="D6:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,52 +1695,52 @@
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="19"/>
-      <c r="E12" s="36"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D13" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D14" s="40"/>
-      <c r="E14" s="38"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="15" t="s">
@@ -1752,6 +1771,113 @@
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321BA024-25F8-4659-B0F8-A9501A407AAA}">
+  <dimension ref="D6:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="64.03125" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="28"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="21"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="40"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1800,209 +1926,209 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="18"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2066,115 +2192,115 @@
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="23"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="25"/>
-      <c r="F19" s="18"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="18"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="19"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="18"/>
-      <c r="F25" s="28"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J30" s="5"/>
@@ -2227,108 +2353,108 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="23"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="25"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="31"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="29"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2381,107 +2507,107 @@
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D9" s="6"/>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D10" s="6"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="23"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="25"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="26"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2531,92 +2657,92 @@
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="23"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="25"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="31"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2664,100 +2790,100 @@
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="23"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="25"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="23"/>
-      <c r="G21" s="28"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="23"/>
-      <c r="G23" s="28"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2805,56 +2931,56 @@
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2896,16 +3022,16 @@
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" s="11"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18D56B4-5282-41D0-ADE7-2AAE2ACD6806}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321ECA98-B510-46AA-BB76-7DA90598E445}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,8 @@
     <sheet name="29-04-2022" sheetId="12" r:id="rId12"/>
     <sheet name="05-07-2022" sheetId="13" r:id="rId13"/>
     <sheet name="06-07-2022" sheetId="14" r:id="rId14"/>
-    <sheet name="07-07-2022" sheetId="15" r:id="rId15"/>
+    <sheet name="07-06-2022" sheetId="16" r:id="rId15"/>
+    <sheet name="07-07-2022" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="144">
   <si>
     <t>MOM</t>
   </si>
@@ -430,13 +431,47 @@
   </si>
   <si>
     <t>All the validations</t>
+  </si>
+  <si>
+    <t>Award description in Tooltip in Raise request Page</t>
+  </si>
+  <si>
+    <t>Thin borders in some pages like Raise request</t>
+  </si>
+  <si>
+    <t>Color needs to be changed according to contrast</t>
+  </si>
+  <si>
+    <t>Sidebar la allignments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejected reason - needs to refreshed </t>
+  </si>
+  <si>
+    <t>no Inline CSS</t>
+  </si>
+  <si>
+    <t>Requests view screens needs to be same</t>
+  </si>
+  <si>
+    <t>Add employee page</t>
+  </si>
+  <si>
+    <t>7.36-8.55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +511,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -699,11 +740,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,8 +878,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% – Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1788,11 +1858,140 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474D391-F3D9-4C2D-BA65-EE37936C3B8A}">
+  <dimension ref="D3:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="64.03125" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="28"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="21"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="46"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="32"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="43"/>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="43"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="43"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="43"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321BA024-25F8-4659-B0F8-A9501A407AAA}">
   <dimension ref="D6:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1855,17 +2054,13 @@
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="18" t="s">
-        <v>122</v>
-      </c>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="18"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18D56B4-5282-41D0-ADE7-2AAE2ACD6806}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2389AD-064A-489A-95B6-EF3777346003}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="05-07-2022" sheetId="13" r:id="rId13"/>
     <sheet name="06-07-2022" sheetId="14" r:id="rId14"/>
     <sheet name="07-07-2022" sheetId="15" r:id="rId15"/>
+    <sheet name="08-07-2022" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="136">
   <si>
     <t>MOM</t>
   </si>
@@ -430,6 +431,24 @@
   </si>
   <si>
     <t>All the validations</t>
+  </si>
+  <si>
+    <t>Add employee-Toastr message</t>
+  </si>
+  <si>
+    <t>Rejection reason-Toastr message</t>
+  </si>
+  <si>
+    <t>card size-make it small(min 8 cards)</t>
+  </si>
+  <si>
+    <t>comments notification for user</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>Rafi asked us to complete the functionality</t>
   </si>
 </sst>
 </file>
@@ -703,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,45 +778,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,175 +1272,175 @@
       </c>
     </row>
     <row r="6" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="25"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="27"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E16" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="34"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="25"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="25"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="25"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="25"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="25"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="25"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1444,52 +1469,52 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="28"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1529,40 +1554,40 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="28"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="20"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1581,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04854795-6C1A-448D-8E51-11873334691F}">
   <dimension ref="D6:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
@@ -1600,38 +1625,38 @@
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="28"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="20"/>
-      <c r="E11" s="29" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="20"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="15" t="s">
@@ -1676,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581AE4B4-9B8B-46CD-BAE6-9DA4D327528E}">
   <dimension ref="D6:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1695,52 +1720,52 @@
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="28"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="21"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="15" t="s">
@@ -1791,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321BA024-25F8-4659-B0F8-A9501A407AAA}">
   <dimension ref="D6:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1810,44 +1835,44 @@
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="28"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="21"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="15" t="s">
@@ -1889,6 +1914,113 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD96AE77-2CA4-4F38-B1F5-F033F5362DD0}">
+  <dimension ref="B3:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="44.79296875" customWidth="1"/>
+    <col min="3" max="3" width="42.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="22"/>
+      <c r="C9" s="40"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1926,234 +2058,212 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="20"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="20"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -2164,6 +2274,28 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2192,129 +2324,121 @@
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="25"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="27"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="20"/>
-      <c r="F21" s="24"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="20"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -2325,6 +2449,14 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2353,129 +2485,129 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="25"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="27"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18" s="33"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="31"/>
-      <c r="F22" s="20"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2507,118 +2639,110 @@
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D9" s="6"/>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D10" s="6"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="25"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="27"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="28"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -2629,6 +2753,14 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2657,101 +2789,95 @@
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="25"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="27"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F20" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F21" s="33"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -2762,6 +2888,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2790,103 +2922,109 @@
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="25"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="27"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F18" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="25"/>
-      <c r="G21" s="30"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="25"/>
-      <c r="G23" s="30"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -2897,12 +3035,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2931,56 +3063,56 @@
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3022,16 +3154,16 @@
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" s="11"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{DF2643E8-9018-4704-9AC0-A8A1EE8BC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2389AD-064A-489A-95B6-EF3777346003}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="4_{E7786BE1-6825-43D3-BC67-D5A7CB44B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C07A32-B5AE-42CB-807D-561B67F1DD3B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
   <si>
     <t>MOM</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>Rafi asked us to complete the functionality</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1927,7 @@
   <dimension ref="B3:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1945,7 +1948,9 @@
       <c r="B4" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
@@ -1955,7 +1960,9 @@
       <c r="B6" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="26"/>
@@ -1965,7 +1972,9 @@
       <c r="B8" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="22"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="4_{E7786BE1-6825-43D3-BC67-D5A7CB44B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C07A32-B5AE-42CB-807D-561B67F1DD3B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="4_{E7786BE1-6825-43D3-BC67-D5A7CB44B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BE6E36F-A80B-4B41-AE26-C11A287AFEBD}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,9 +786,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,31 +813,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,79 +1275,79 @@
       </c>
     </row>
     <row r="6" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="23"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="25"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="36"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>102</v>
       </c>
       <c r="F18" s="31" t="s">
@@ -1355,11 +1355,11 @@
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="23"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="32"/>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="31" t="s">
@@ -1367,11 +1367,11 @@
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="23"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>104</v>
       </c>
       <c r="F22" s="31" t="s">
@@ -1379,11 +1379,11 @@
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="23"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="32"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="23" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="31" t="s">
@@ -1391,11 +1391,11 @@
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="23"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="23" t="s">
         <v>106</v>
       </c>
       <c r="F26" s="31" t="s">
@@ -1403,11 +1403,11 @@
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="23"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="32"/>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="31" t="s">
@@ -1415,35 +1415,35 @@
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="23"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1472,52 +1472,52 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="26"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1557,31 +1557,31 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="26"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="22" t="s">
         <v>115</v>
       </c>
       <c r="F11" s="31" t="s">
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="27"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="32"/>
     </row>
   </sheetData>
@@ -1628,37 +1628,37 @@
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="27"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="27"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="32"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
@@ -1723,31 +1723,31 @@
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="22" t="s">
         <v>119</v>
       </c>
       <c r="E11" s="31" t="s">
@@ -1755,7 +1755,7 @@
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="22"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="40"/>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.2">
@@ -1838,33 +1838,33 @@
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="22" t="s">
         <v>128</v>
       </c>
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="22"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="40"/>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.2">
@@ -1927,7 +1927,7 @@
   <dimension ref="B3:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1945,31 +1945,31 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>134</v>
+      <c r="C6" s="23" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -1977,7 +1977,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="40"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -2067,212 +2067,234 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="27"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="27"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -2283,28 +2305,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2333,94 +2333,94 @@
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="23"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="25"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="27"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="22"/>
-      <c r="F23" s="27"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="31" t="s">
@@ -2428,26 +2428,34 @@
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="27"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="32"/>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -2458,14 +2466,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2494,129 +2494,129 @@
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="23"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="25"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="33"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="34"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2648,71 +2648,71 @@
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D9" s="6"/>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D10" s="6"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="23"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="25"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2721,26 +2721,26 @@
       <c r="F20" s="37"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="31"/>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="26"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25" s="38"/>
@@ -2752,6 +2752,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -2762,14 +2770,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2798,95 +2798,101 @@
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="23"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="25"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -2897,12 +2903,6 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2931,79 +2931,79 @@
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="23"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="25"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F19" s="36"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="23" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="31" t="s">
@@ -3011,11 +3011,11 @@
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="23"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="32"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="23" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="31" t="s">
@@ -3023,17 +3023,11 @@
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="23"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -3044,6 +3038,12 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3072,56 +3072,56 @@
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3163,16 +3163,16 @@
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" s="11"/>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="4_{E7786BE1-6825-43D3-BC67-D5A7CB44B3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BE6E36F-A80B-4B41-AE26-C11A287AFEBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC68245-AD80-4685-A1B6-B7F141A49D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="06-07-2022" sheetId="14" r:id="rId14"/>
     <sheet name="07-07-2022" sheetId="15" r:id="rId15"/>
     <sheet name="08-07-2022" sheetId="16" r:id="rId16"/>
+    <sheet name="11-07-2022" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,6 +35,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="144">
   <si>
     <t>MOM</t>
   </si>
@@ -391,6 +393,12 @@
     <t>Logging and Exception handling</t>
   </si>
   <si>
+    <t>Has to complete Dashboard within Tuesday</t>
+  </si>
+  <si>
+    <t>Asked to fill the Revised Plan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
@@ -400,6 +408,9 @@
     <t>Complete the Functionality</t>
   </si>
   <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
     <t>Edit to update &amp; Add to Edit slight change in ADD awards screen</t>
   </si>
   <si>
@@ -412,15 +423,6 @@
     <t xml:space="preserve">Var char max = can hold upto 2gb </t>
   </si>
   <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
-    <t>Has to complete Dashboard within Tuesday</t>
-  </si>
-  <si>
-    <t>Asked to fill the Revised Plan</t>
-  </si>
-  <si>
     <t>Font changes in login screen</t>
   </si>
   <si>
@@ -436,29 +438,50 @@
     <t>Add employee-Toastr message</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Rejection reason-Toastr message</t>
   </si>
   <si>
     <t>card size-make it small(min 8 cards)</t>
   </si>
   <si>
+    <t>InProgress</t>
+  </si>
+  <si>
     <t>comments notification for user</t>
   </si>
   <si>
-    <t>InProgress</t>
-  </si>
-  <si>
     <t>Rafi asked us to complete the functionality</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>Add Pagination in home page</t>
+  </si>
+  <si>
+    <t>Side bar image and profile image should be same</t>
+  </si>
+  <si>
+    <t>Dropdown blank problem</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>In-progress</t>
+  </si>
+  <si>
+    <t>sonarqube</t>
+  </si>
+  <si>
+    <t>Jmeter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,72 +791,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,6 +859,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,15 +1192,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.14453125" style="1"/>
-    <col min="3" max="3" width="75.0625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.68359375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.14453125" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:4">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:4" ht="50.25" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:4" ht="50.25" customHeight="1">
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:4" ht="50.25" customHeight="1">
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +1232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4" ht="50.25" customHeight="1">
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:4" ht="50.25" customHeight="1">
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4" ht="50.25" customHeight="1">
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:4" ht="50.25" customHeight="1">
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1260,13 +1277,13 @@
       <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="93.76171875" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:6">
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
@@ -1274,176 +1291,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E6" s="23" t="s">
+    <row r="6" spans="5:6">
+      <c r="E6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="23" t="s">
+      <c r="F6" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="23" t="s">
+    <row r="9" spans="5:6">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="23" t="s">
+    <row r="11" spans="5:6">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="27"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="28" t="s">
+      <c r="F12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="17"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="29"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="35" t="s">
+      <c r="F14" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="36"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="23" t="s">
+    <row r="17" spans="5:6">
+      <c r="E17" s="30"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="27"/>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="23" t="s">
+    <row r="19" spans="5:6">
+      <c r="E19" s="17"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="27"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="23" t="s">
+      <c r="F20" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="17"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="27"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="23" t="s">
+    <row r="23" spans="5:6">
+      <c r="E23" s="17"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="27"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="23" t="s">
+    <row r="25" spans="5:6">
+      <c r="E25" s="17"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="27"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="23" t="s">
+    <row r="27" spans="5:6">
+      <c r="E27" s="17"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="27"/>
-      <c r="F29" s="32"/>
+    <row r="29" spans="5:6">
+      <c r="E29" s="17"/>
+      <c r="F29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1457,13 +1474,13 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="54.61328125" customWidth="1"/>
-    <col min="6" max="6" width="37.53125" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:6">
       <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1471,53 +1488,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="23" t="s">
+    <row r="7" spans="5:6">
+      <c r="E7" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="23" t="s">
+      <c r="F7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="23" t="s">
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="30"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="22" t="s">
+      <c r="F11" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="20"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+    <row r="14" spans="5:6">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1542,13 +1559,13 @@
       <selection activeCell="E6" sqref="E6:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="54.61328125" customWidth="1"/>
-    <col min="6" max="6" width="37.53125" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:6">
       <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1556,41 +1573,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="23" t="s">
+    <row r="7" spans="5:6">
+      <c r="E7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="23" t="s">
+      <c r="F7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="30"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="22" t="s">
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="20"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="22"/>
-      <c r="F12" s="32"/>
+      <c r="F11" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="21"/>
+      <c r="F12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1613,13 +1630,13 @@
       <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="64.03125" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:5">
       <c r="D6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1627,64 +1644,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="30"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="22"/>
-      <c r="E11" s="31" t="s">
+    <row r="7" spans="4:5">
+      <c r="D7" s="16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="22"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="20"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="21"/>
+      <c r="E11" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="21"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="18" spans="4:4">
       <c r="D18" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4">
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4">
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4">
       <c r="D25" s="8"/>
     </row>
   </sheetData>
@@ -1708,13 +1725,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="64.03125" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:5">
       <c r="D6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1722,83 +1739,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="23" t="s">
+    <row r="7" spans="4:5">
+      <c r="D7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="20"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="16"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="35" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="30"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="23"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="42"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="36"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="18" spans="4:4">
       <c r="D18" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="16"/>
+    <row r="19" spans="4:4">
+      <c r="D19" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1823,13 +1840,13 @@
       <selection activeCell="D18" sqref="D18:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="64.03125" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:5">
       <c r="D6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1837,75 +1854,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="23" t="s">
+    <row r="7" spans="4:5">
+      <c r="D7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="23" t="s">
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="30"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="22" t="s">
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="20"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="23"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="41" t="s">
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="16"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="42"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="36"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="18" spans="4:4">
       <c r="D18" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="18"/>
+    <row r="19" spans="4:4">
+      <c r="D19" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1926,17 +1943,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD96AE77-2CA4-4F38-B1F5-F033F5362DD0}">
   <dimension ref="B3:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="44.79296875" customWidth="1"/>
-    <col min="3" max="3" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
@@ -1944,86 +1961,212 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="30"/>
-      <c r="C7" s="27"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C6" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="40"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="43" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="44"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
+      <c r="B11" s="36"/>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
+    <row r="15" spans="2:3">
+      <c r="B15" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5103448-129C-4533-A8CA-DB68AAA2B2B1}">
+  <dimension ref="B3:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="F5" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="16"/>
+      <c r="C9" s="34"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="40"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B6:B7"/>
@@ -2043,19 +2186,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="115.82421875" customWidth="1"/>
-    <col min="4" max="4" width="37.26171875" customWidth="1"/>
+    <col min="3" max="3" width="115.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
@@ -2065,236 +2208,214 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="22" t="s">
+    <row r="15" spans="2:5">
+      <c r="C15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="22"/>
-      <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="22" t="s">
+      <c r="D15" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="22" t="s">
+      <c r="D17" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="22" t="s">
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="22" t="s">
+      <c r="D21" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="22" t="s">
+      <c r="D23" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="22" t="s">
+      <c r="D25" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="22" t="s">
+      <c r="D27" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="22" t="s">
+      <c r="D29" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="22" t="s">
+      <c r="D31" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="22" t="s">
+      <c r="D33" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="22" t="s">
+      <c r="D35" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="22"/>
+    <row r="38" spans="3:4">
+      <c r="C38" s="21"/>
       <c r="D38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -2305,6 +2426,28 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2318,13 +2461,13 @@
       <selection activeCell="E9" sqref="E9:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="119.859375" customWidth="1"/>
-    <col min="6" max="6" width="14.390625" customWidth="1"/>
+    <col min="5" max="5" width="119.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:8">
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
@@ -2332,130 +2475,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E10" s="23" t="s">
+    <row r="10" spans="5:8">
+      <c r="E10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="F10" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="23" t="s">
+    <row r="12" spans="5:8">
+      <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="23" t="s">
+      <c r="F12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="5:8">
+      <c r="E14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="23" t="s">
+      <c r="F14" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="5:8">
+      <c r="E16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="27"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="28" t="s">
+      <c r="F16" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="17"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="29"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="22" t="s">
+      <c r="F18" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" s="19"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="22"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="22" t="s">
+      <c r="F20" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="E22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="22" t="s">
+      <c r="F22" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="E23" s="16"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="E24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="22"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="27" t="s">
+    <row r="25" spans="5:10">
+      <c r="E25" s="21"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="5:10">
+      <c r="E26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -2466,6 +2601,14 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2479,13 +2622,13 @@
       <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="88.515625" customWidth="1"/>
-    <col min="6" max="6" width="27.57421875" customWidth="1"/>
+    <col min="5" max="5" width="88.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:6">
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2493,130 +2636,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="23" t="s">
+    <row r="7" spans="5:6">
+      <c r="E7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="23" t="s">
+      <c r="F7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="23" t="s">
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="23" t="s">
+      <c r="F11" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="27"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="28" t="s">
+      <c r="F13" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="17"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="29"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="35" t="s">
+      <c r="F15" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="35"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="22" t="s">
+      <c r="F17" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="27"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="33" t="s">
+      <c r="F19" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="33"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="F21" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="28"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2630,15 +2773,15 @@
       <selection activeCell="E8" sqref="E8:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.35546875" customWidth="1"/>
-    <col min="5" max="5" width="123.625" customWidth="1"/>
-    <col min="6" max="6" width="26.90234375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="123.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:6">
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2646,120 +2789,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="23" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="E11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="23" t="s">
+    <row r="12" spans="4:6">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="E13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="23" t="s">
+      <c r="F13" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="E15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E16" s="27"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="28" t="s">
+      <c r="F15" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="E16" s="17"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="29"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="35" t="s">
+      <c r="F17" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="19"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="23" t="s">
+      <c r="F19" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="30"/>
-      <c r="F22" s="40"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="22" t="s">
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="20"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
+      <c r="F23" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -2770,6 +2905,14 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2783,13 +2926,13 @@
       <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="92.1484375" customWidth="1"/>
-    <col min="7" max="7" width="37.26171875" customWidth="1"/>
+    <col min="6" max="6" width="92.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="6:7">
       <c r="F9" s="2" t="s">
         <v>0</v>
       </c>
@@ -2797,102 +2940,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="23" t="s">
+    <row r="10" spans="6:7">
+      <c r="F10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="23" t="s">
+      <c r="G10" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="23" t="s">
+      <c r="G12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="23" t="s">
+      <c r="G14" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="27"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="28" t="s">
+    <row r="17" spans="6:7">
+      <c r="F17" s="17"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="29"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="35" t="s">
+      <c r="G18" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="G20" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="27"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -2903,6 +3040,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2916,13 +3059,13 @@
       <selection activeCell="F7" sqref="F7:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="82.19140625" customWidth="1"/>
-    <col min="7" max="7" width="36.453125" customWidth="1"/>
+    <col min="6" max="6" width="82.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="6:7">
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2930,104 +3073,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="23" t="s">
+    <row r="8" spans="6:7">
+      <c r="F8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="23" t="s">
+    <row r="9" spans="6:7">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="23" t="s">
+    <row r="11" spans="6:7">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="23" t="s">
+    <row r="13" spans="6:7">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="27"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="28" t="s">
+    <row r="15" spans="6:7">
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="29"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="35" t="s">
+    <row r="17" spans="6:7">
+      <c r="F17" s="19"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="23" t="s">
+    <row r="19" spans="6:7">
+      <c r="F19" s="30"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="27"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="23" t="s">
+    <row r="21" spans="6:7">
+      <c r="F21" s="17"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="27"/>
-      <c r="G23" s="32"/>
+    <row r="23" spans="6:7">
+      <c r="F23" s="17"/>
+      <c r="G23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -3038,12 +3187,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3057,13 +3200,13 @@
       <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="76.00390625" customWidth="1"/>
-    <col min="7" max="7" width="27.57421875" customWidth="1"/>
+    <col min="6" max="6" width="76" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="6:7">
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
@@ -3071,57 +3214,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F7" s="23" t="s">
+    <row r="7" spans="6:7">
+      <c r="F7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="23" t="s">
+    <row r="8" spans="6:7">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="23" t="s">
+    <row r="10" spans="6:7">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+    <row r="12" spans="6:7">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3148,13 +3291,13 @@
       <selection activeCell="D17" sqref="D17:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="96.31640625" customWidth="1"/>
-    <col min="5" max="5" width="36.3203125" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:5">
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -3162,100 +3305,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="23" t="s">
+    <row r="5" spans="4:5">
+      <c r="D5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:5">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="4:5">
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:5">
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:5">
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:5">
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:5">
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:5">
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:5">
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:5">
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:5">
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:5">
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5">
       <c r="D17" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5">
       <c r="D18" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5">
       <c r="D19" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5">
       <c r="D20" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5">
       <c r="D21" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5">
       <c r="D22" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5">
       <c r="D23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5">
       <c r="D24" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="D34" s="13" t="s">
         <v>83</v>
       </c>
@@ -3263,7 +3406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5">
       <c r="D35" s="9" t="s">
         <v>85</v>
       </c>
@@ -3271,7 +3414,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="D36" s="4" t="s">
         <v>87</v>
       </c>
@@ -3279,7 +3422,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5">
       <c r="D37" s="8" t="s">
         <v>89</v>
       </c>
@@ -3287,7 +3430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5">
       <c r="D38" s="8" t="s">
         <v>91</v>
       </c>
@@ -3295,7 +3438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5">
       <c r="D39" s="8" t="s">
         <v>93</v>
       </c>
@@ -3303,7 +3446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5">
       <c r="D40" s="8" t="s">
         <v>95</v>
       </c>
@@ -3311,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5">
       <c r="D41" s="7"/>
       <c r="E41" s="12"/>
     </row>

--- a/Process/Timesheet/MOM.xlsx
+++ b/Process/Timesheet/MOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC68245-AD80-4685-A1B6-B7F141A49D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBC96A4-DBCE-4FF7-BBD1-0DE2B17F8A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-04-2022" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="07-07-2022" sheetId="15" r:id="rId15"/>
     <sheet name="08-07-2022" sheetId="16" r:id="rId16"/>
     <sheet name="11-07-2022" sheetId="17" r:id="rId17"/>
+    <sheet name="12-07-2022" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="158">
   <si>
     <t>MOM</t>
   </si>
@@ -475,6 +476,48 @@
   </si>
   <si>
     <t>Jmeter</t>
+  </si>
+  <si>
+    <t>Validation in Reason when Raise request</t>
+  </si>
+  <si>
+    <t>Comment Page Responsiveness</t>
+  </si>
+  <si>
+    <t>Add request Reson text area extensible</t>
+  </si>
+  <si>
+    <t>Login Font Changes</t>
+  </si>
+  <si>
+    <t>Comment with date and time</t>
+  </si>
+  <si>
+    <t>Award image with Name (Alt)</t>
+  </si>
+  <si>
+    <t>ReadMore Tanged with card problem</t>
+  </si>
+  <si>
+    <t>Home Page Filter Alter</t>
+  </si>
+  <si>
+    <t>Home Naming convention it is confused with dashboard</t>
+  </si>
+  <si>
+    <t>Apply disabled before you doesn't filter</t>
+  </si>
+  <si>
+    <t>Chat should be in one instance</t>
+  </si>
+  <si>
+    <t>Coupan code with 50 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenarios </t>
+  </si>
+  <si>
+    <t>Mail service in html page</t>
   </si>
 </sst>
 </file>
@@ -791,9 +834,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,31 +861,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,79 +1335,79 @@
       </c>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="17"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17" s="30"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>102</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -1372,11 +1415,11 @@
       </c>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="17"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -1384,11 +1427,11 @@
       </c>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="17"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="17" t="s">
         <v>104</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -1396,11 +1439,11 @@
       </c>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="17"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1408,11 +1451,11 @@
       </c>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="17"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="17" t="s">
         <v>106</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -1420,11 +1463,11 @@
       </c>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="17"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -1432,35 +1475,35 @@
       </c>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="17"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1489,52 +1532,52 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="20"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1574,31 +1617,31 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="20"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F11" s="25" t="s">
@@ -1606,7 +1649,7 @@
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="21"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="26"/>
     </row>
   </sheetData>
@@ -1645,37 +1688,37 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="4:5">
-      <c r="D11" s="21"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="25" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="4:5">
-      <c r="D12" s="21"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="26"/>
     </row>
     <row r="18" spans="4:4">
@@ -1740,31 +1783,31 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="4:5">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="25" t="s">
@@ -1772,7 +1815,7 @@
       </c>
     </row>
     <row r="12" spans="4:5">
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="34"/>
     </row>
     <row r="13" spans="4:5">
@@ -1855,33 +1898,33 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="4:5">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="4:5">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="4:5">
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="16" t="s">
         <v>128</v>
       </c>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="4:5">
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="34"/>
     </row>
     <row r="13" spans="4:5">
@@ -1962,31 +2005,31 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1994,7 +2037,7 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="34"/>
     </row>
     <row r="10" spans="2:3">
@@ -2056,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5103448-129C-4533-A8CA-DB68AAA2B2B1}">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2076,10 +2119,10 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>131</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -2087,28 +2130,28 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="F5" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="20"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="21"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -2117,7 +2160,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="34"/>
       <c r="F9" s="8"/>
     </row>
@@ -2161,11 +2204,249 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F690E45-204C-49B7-AB25-84229595A523}">
+  <dimension ref="B3:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="F5" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="24"/>
+      <c r="C7" s="21"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="17"/>
+      <c r="C9" s="34"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="40"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="40"/>
+      <c r="C17" s="42"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="40"/>
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="40"/>
+      <c r="C21" s="42"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="40"/>
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="40"/>
+      <c r="C25" s="42"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="40"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="40"/>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="40"/>
+      <c r="C31" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -2210,212 +2491,234 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="21"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C37:C38"/>
@@ -2426,28 +2729,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2476,94 +2757,94 @@
       </c>
     </row>
     <row r="10" spans="5:8">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:8">
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="5:8">
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="5:8">
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="5:8">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="17"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="16"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -2571,26 +2852,34 @@
       </c>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="21"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="30" spans="5:10">
       <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E18:E19"/>
@@ -2601,14 +2890,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2637,129 +2918,129 @@
       </c>
     </row>
     <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="17"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="27"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="28"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2791,71 +3072,71 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="6"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="6"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="4:6">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:6">
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="4:6">
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6">
-      <c r="E16" s="17"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2864,26 +3145,26 @@
       <c r="F20" s="31"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="25"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="20"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="34"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="32"/>
@@ -2895,6 +3176,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
@@ -2905,14 +3194,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2941,95 +3222,101 @@
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="17"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="19"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="27"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F24:F25"/>
@@ -3040,12 +3327,6 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3074,79 +3355,79 @@
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="19"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="30"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -3154,11 +3435,11 @@
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="17"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="25" t="s">
@@ -3166,17 +3447,11 @@
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="17"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="F22:F23"/>
@@ -3187,6 +3462,12 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3215,56 +3496,56 @@
       </c>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3306,16 +3587,16 @@
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="11"/>
